--- a/app/data/absenteeism_data_16.xlsx
+++ b/app/data/absenteeism_data_16.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>59069</v>
+        <v>35133</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ana Lívia Nunes</t>
+          <t>Juliana Barros</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,106 +497,106 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45097</v>
+        <v>45092</v>
       </c>
       <c r="G2" t="n">
-        <v>3747.4</v>
+        <v>4797.21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20757</v>
+        <v>86894</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Guilherme Ribeiro</t>
+          <t>Dr. Davi Lucca Sales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45085</v>
+        <v>45097</v>
       </c>
       <c r="G3" t="n">
-        <v>7407.03</v>
+        <v>4431.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97953</v>
+        <v>28258</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Augusto Rodrigues</t>
+          <t>Sr. Nicolas Cardoso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45100</v>
+        <v>45096</v>
       </c>
       <c r="G4" t="n">
-        <v>5727.33</v>
+        <v>7584.72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>38557</v>
+        <v>40306</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alice Freitas</t>
+          <t>Dra. Isis Pereira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45078</v>
+        <v>45095</v>
       </c>
       <c r="G5" t="n">
-        <v>2633.65</v>
+        <v>10658.41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>39181</v>
+        <v>18893</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Brenda Peixoto</t>
+          <t>Emilly Freitas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,60 +606,60 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45105</v>
+        <v>45081</v>
       </c>
       <c r="G6" t="n">
-        <v>10607.91</v>
+        <v>7431.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>29778</v>
+        <v>71892</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alice da Cunha</t>
+          <t>Dra. Alice Silveira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45105</v>
+        <v>45078</v>
       </c>
       <c r="G7" t="n">
-        <v>6104.72</v>
+        <v>11077.67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>42254</v>
+        <v>84452</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Srta. Mariane Fogaça</t>
+          <t>Pietra Cavalcanti</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,32 +668,32 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45090</v>
+        <v>45081</v>
       </c>
       <c r="G8" t="n">
-        <v>3011.63</v>
+        <v>6514.95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>55364</v>
+        <v>74908</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vinicius Novaes</t>
+          <t>Isaac Viana</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -703,65 +703,65 @@
         <v>45087</v>
       </c>
       <c r="G9" t="n">
-        <v>9176.120000000001</v>
+        <v>7813.41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>70324</v>
+        <v>23947</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Theo da Mota</t>
+          <t>João Guilherme Rocha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45091</v>
+        <v>45090</v>
       </c>
       <c r="G10" t="n">
-        <v>8939.67</v>
+        <v>9674.27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>75328</v>
+        <v>97929</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Ian Gonçalves</t>
+          <t>Augusto Alves</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45092</v>
+        <v>45100</v>
       </c>
       <c r="G11" t="n">
-        <v>3851.24</v>
+        <v>4264.97</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_16.xlsx
+++ b/app/data/absenteeism_data_16.xlsx
@@ -476,161 +476,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>58505</v>
+        <v>78756</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Noah Pires</t>
+          <t>Srta. Sofia Araújo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45105</v>
+        <v>45099</v>
       </c>
       <c r="G2" t="n">
-        <v>5363.55</v>
+        <v>12102.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>80887</v>
+        <v>31060</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Enrico Pires</t>
+          <t>Maria Luiza Dias</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45088</v>
+        <v>45095</v>
       </c>
       <c r="G3" t="n">
-        <v>5574.39</v>
+        <v>10292.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>49068</v>
+        <v>81232</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Benício Pires</t>
+          <t>Paulo Porto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45080</v>
+        <v>45093</v>
       </c>
       <c r="G4" t="n">
-        <v>5195.32</v>
+        <v>5948.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>82825</v>
+        <v>47449</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Stephany Duarte</t>
+          <t>Kevin Alves</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45086</v>
+        <v>45101</v>
       </c>
       <c r="G5" t="n">
-        <v>3050.14</v>
+        <v>7610.78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>54240</v>
+        <v>56634</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. Pedro Miguel Alves</t>
+          <t>Bárbara Rocha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45100</v>
+        <v>45099</v>
       </c>
       <c r="G6" t="n">
-        <v>4624.98</v>
+        <v>4959.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>56342</v>
+        <v>40563</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Stephany Viana</t>
+          <t>Bianca Nogueira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,51 +639,51 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45099</v>
+        <v>45097</v>
       </c>
       <c r="G7" t="n">
-        <v>6299.15</v>
+        <v>9517.049999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>68262</v>
+        <v>14003</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Thales Costela</t>
+          <t>Pietro Farias</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45103</v>
+        <v>45102</v>
       </c>
       <c r="G8" t="n">
-        <v>8829.99</v>
+        <v>12214.84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>25152</v>
+        <v>19652</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Breno Duarte</t>
+          <t>Sr. Pedro Miguel da Rocha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,75 +693,75 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45089</v>
+        <v>45082</v>
       </c>
       <c r="G9" t="n">
-        <v>9664.040000000001</v>
+        <v>2863.84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12000</v>
+        <v>16943</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Vitória Porto</t>
+          <t>Lavínia da Mota</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45105</v>
+        <v>45082</v>
       </c>
       <c r="G10" t="n">
-        <v>10631.01</v>
+        <v>4688.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>25321</v>
+        <v>98474</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Sophia Caldeira</t>
+          <t>Melissa Fogaça</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45106</v>
+        <v>45078</v>
       </c>
       <c r="G11" t="n">
-        <v>10188.79</v>
+        <v>5296.56</v>
       </c>
     </row>
   </sheetData>
